--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_NN_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R203_NN_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1521,10 +1533,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1568,28 +1580,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1614,28 +1626,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2332,10 +2344,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2379,28 +2391,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2425,28 +2437,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2708,10 +2720,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2755,28 +2767,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2801,28 +2813,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3026,10 +3038,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3073,28 +3085,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3119,28 +3131,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3344,10 +3356,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3391,28 +3403,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3437,28 +3449,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3633,10 +3645,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3680,28 +3692,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3726,28 +3738,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3951,10 +3963,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="J132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3998,28 +4010,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4044,28 +4056,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4153,10 +4165,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K139" s="2" t="s">
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4200,28 +4212,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4246,28 +4258,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4367,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
